--- a/IT_CGT_top_marginal_rates.xlsx
+++ b/IT_CGT_top_marginal_rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/Coding/tax_plotting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C135B1-CFE7-9349-85E3-7D18A1D2D4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA6810B-DA9B-5C45-B43D-297D647326A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1180" windowWidth="19100" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1423,7 +1423,7 @@
         <v>0.37840000000000001</v>
       </c>
       <c r="D29" s="1">
-        <v>0.35199999999999998</v>
+        <v>0.37840000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
